--- a/data/trans_bre/P17_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.902336208568546</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.547167330775988</v>
+        <v>-1.547167330775987</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1878621527007109</v>
@@ -649,7 +649,7 @@
         <v>0.2051612015250898</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1445408480702269</v>
+        <v>-0.1445408480702268</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6477583732780454</v>
+        <v>0.6491111855366343</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.535326595107444</v>
+        <v>2.088068285147571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.866158126917176</v>
+        <v>-0.6575355745472521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.498270246098619</v>
+        <v>-4.648998863144786</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02135364118090653</v>
+        <v>0.0241122117334889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0713434852808906</v>
+        <v>0.1019914381523343</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.05431871392141033</v>
+        <v>-0.04312456991126063</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3523462118491839</v>
+        <v>-0.3671101151332155</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.072382543221124</v>
+        <v>7.818032677181427</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.172852985811703</v>
+        <v>9.343225488492134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.241995024445435</v>
+        <v>6.573315151835597</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.269962214317873</v>
+        <v>1.331451328296993</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3658360942673213</v>
+        <v>0.3549278915824605</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5293094573626517</v>
+        <v>0.5518324619256031</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5216739050838132</v>
+        <v>0.5397881044041923</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1485534862728346</v>
+        <v>0.1507432067772068</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.575980698162432</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.884405180882354</v>
+        <v>8.884405180882352</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.542755875130257</v>
@@ -749,7 +749,7 @@
         <v>0.2352781147255269</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6286259154197463</v>
+        <v>0.6286259154197459</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.529907287676126</v>
+        <v>8.739358119677231</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.066480161788805</v>
+        <v>7.92063771196829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.997017180370196</v>
+        <v>2.116217849876497</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.465013337209946</v>
+        <v>6.519497514928467</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3786219566808176</v>
+        <v>0.3733314158546062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2774982097464028</v>
+        <v>0.2797163779727926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1002409214505666</v>
+        <v>0.1007283130871806</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4197436300260915</v>
+        <v>0.4227583923353718</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.60646669030383</v>
+        <v>14.68925437778579</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.46780810692023</v>
+        <v>14.15610715733673</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.130287763759401</v>
+        <v>7.278252963715369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.07341359568427</v>
+        <v>11.37528643383986</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7374299632685692</v>
+        <v>0.7248731359376894</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5577486494940254</v>
+        <v>0.5527972030866509</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4006330527615322</v>
+        <v>0.4022399290837852</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8684460124184223</v>
+        <v>0.9055439423081449</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>11.05921244891823</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.758354580102158</v>
+        <v>3.758354580102161</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05340999407065301</v>
@@ -849,7 +849,7 @@
         <v>0.5712491657738764</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1857913623496794</v>
+        <v>0.1857913623496795</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.483892828821345</v>
+        <v>-3.765733455276794</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2953576553358878</v>
+        <v>-0.6777819878512616</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.769313377419047</v>
+        <v>5.834947148788047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.394498392677872</v>
+        <v>-0.8208814781040877</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1435227930989911</v>
+        <v>-0.1264519623444544</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.005654245584865462</v>
+        <v>-0.0195426425892892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2684307794820473</v>
+        <v>0.2621472186523698</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05877464336463341</v>
+        <v>-0.03515944485732003</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.217427604641088</v>
+        <v>7.726074377947524</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.66045135117452</v>
+        <v>12.57521558837279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.48738149689731</v>
+        <v>16.91459898263032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.213784712310733</v>
+        <v>8.114526987087507</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2820994539462991</v>
+        <v>0.3034234297435989</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4645784225309612</v>
+        <v>0.4612413902738088</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9961402227321262</v>
+        <v>1.006097326509842</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.465877087611387</v>
+        <v>0.4645576862654133</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.526723917262938</v>
+        <v>5.381880795927187</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.520429893028752</v>
+        <v>5.454674228153776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.911385665868988</v>
+        <v>2.983448752558363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.545155440639249</v>
+        <v>3.482435938453456</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2261103850734053</v>
+        <v>0.2195100724494042</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2102769416250028</v>
+        <v>0.2085149684829347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1504770446182749</v>
+        <v>0.1562037441603961</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2204394266853101</v>
+        <v>0.2139019552081504</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.685094990087006</v>
+        <v>9.556684660702535</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.01220334276694</v>
+        <v>9.980425992169305</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.85301122803858</v>
+        <v>6.988740735337096</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.056165466746046</v>
+        <v>7.109673755165587</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4353152470057114</v>
+        <v>0.4277518790582679</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4119824800743331</v>
+        <v>0.4109049990896035</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3955307963121824</v>
+        <v>0.4035427121125108</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5087384136849118</v>
+        <v>0.524535605076463</v>
       </c>
     </row>
     <row r="16">
